--- a/RPGStoreSimulator/ShopInventory.xlsx
+++ b/RPGStoreSimulator/ShopInventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\treyp\source\repos\RPGStoreSimulator\RPGStoreSimulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2DB8335-82BA-43CD-B33E-E0AC740A84F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0332B52E-9D5E-4019-AC82-62A2990134D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="3945" windowWidth="21600" windowHeight="11835" xr2:uid="{F8E7B138-A0AE-4F10-A725-BBB7F2C2885F}"/>
+    <workbookView xWindow="6810" yWindow="2310" windowWidth="21720" windowHeight="12435" xr2:uid="{F8E7B138-A0AE-4F10-A725-BBB7F2C2885F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
-  <si>
-    <t>weapontype</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>name</t>
   </si>
@@ -62,28 +59,25 @@
     <t>doomblade</t>
   </si>
   <si>
-    <t>rusty steel sword</t>
-  </si>
-  <si>
-    <t>shortsword of echoes</t>
-  </si>
-  <si>
-    <t>mana potion</t>
-  </si>
-  <si>
-    <t>health potion</t>
-  </si>
-  <si>
     <t>cost</t>
   </si>
   <si>
-    <t>medium health potion</t>
-  </si>
-  <si>
-    <t>medium mana potion</t>
-  </si>
-  <si>
-    <t>m</t>
+    <t>health_potion</t>
+  </si>
+  <si>
+    <t>medium_health_potion</t>
+  </si>
+  <si>
+    <t>mana_potion</t>
+  </si>
+  <si>
+    <t>medium_mana_potion</t>
+  </si>
+  <si>
+    <t>rusty_steel_sword</t>
+  </si>
+  <si>
+    <t>shortsword_of_echoes</t>
   </si>
 </sst>
 </file>
@@ -443,20 +437,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22317B24-4A23-499C-B29E-14C4DF9EDABB}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -468,133 +462,118 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>25</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C7">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>35</v>
+      </c>
+      <c r="E8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="E3">
-        <v>25</v>
-      </c>
-      <c r="F3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5">
-        <v>25</v>
-      </c>
-      <c r="F5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6">
-        <v>15</v>
-      </c>
-      <c r="F6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7">
-        <v>25</v>
-      </c>
-      <c r="F7">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8">
-        <v>35</v>
-      </c>
-      <c r="F8">
+      <c r="C9">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>45</v>
-      </c>
-      <c r="F9">
+      <c r="E9">
         <v>60</v>
       </c>
     </row>
